--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E0B8140-8DC0-EA4A-84EA-82129776E2A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFFEDDF-9049-3745-B9B5-2C595B7116A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="1" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="7" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
   <sheets>
     <sheet name="clinics" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,11 @@
     <sheet name="members" sheetId="3" r:id="rId3"/>
     <sheet name="patients" sheetId="4" r:id="rId4"/>
     <sheet name="services" sheetId="5" r:id="rId5"/>
+    <sheet name="衛教類別" sheetId="6" r:id="rId6"/>
+    <sheet name="衛教問題" sheetId="7" r:id="rId7"/>
+    <sheet name="LINE問題" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="181029" iterate="1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
   <si>
     <t>Clinic</t>
   </si>
@@ -305,6 +308,45 @@
   </si>
   <si>
     <t>db/seed/load_excel/pic/doctors/rectangular/07.jpg</t>
+  </si>
+  <si>
+    <t>Line::Question</t>
+  </si>
+  <si>
+    <t>Clinic::KnowledgeCategory</t>
+  </si>
+  <si>
+    <t>衛教類別1</t>
+  </si>
+  <si>
+    <t>衛教類別2</t>
+  </si>
+  <si>
+    <t>衛教類別3</t>
+  </si>
+  <si>
+    <t>衛教類別4</t>
+  </si>
+  <si>
+    <t>衛教類別5</t>
+  </si>
+  <si>
+    <t>衛教類別6</t>
+  </si>
+  <si>
+    <t>Clinic::Knowledge</t>
+  </si>
+  <si>
+    <t>knowledge_category_id</t>
+  </si>
+  <si>
+    <t>content</t>
+  </si>
+  <si>
+    <t>questionable_type</t>
+  </si>
+  <si>
+    <t>questionable_id</t>
   </si>
 </sst>
 </file>
@@ -769,7 +811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309DE9A2-93E7-6143-AC4B-7FDE0E7BE308}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
@@ -1486,4 +1528,326 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED65DF7C-4BEE-6F4F-92E1-7C27695938B0}">
+  <dimension ref="A1:C8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FD251-7FDE-C846-AD1E-D7724AB44089}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB43364-24B4-2240-8FE8-F445AE5782B7}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C2" t="s">
+        <v>102</v>
+      </c>
+      <c r="D2" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BFFEDDF-9049-3745-B9B5-2C595B7116A4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF1084-D100-E24B-959B-B5D9A9C7A545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="7" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
@@ -18,9 +18,9 @@
     <sheet name="members" sheetId="3" r:id="rId3"/>
     <sheet name="patients" sheetId="4" r:id="rId4"/>
     <sheet name="services" sheetId="5" r:id="rId5"/>
-    <sheet name="衛教類別" sheetId="6" r:id="rId6"/>
-    <sheet name="衛教問題" sheetId="7" r:id="rId7"/>
-    <sheet name="LINE問題" sheetId="8" r:id="rId8"/>
+    <sheet name="衛教資訊分類" sheetId="9" r:id="rId6"/>
+    <sheet name="衛教資訊" sheetId="10" r:id="rId7"/>
+    <sheet name="LINE問題" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
   <si>
     <t>Clinic</t>
   </si>
@@ -313,30 +313,6 @@
     <t>Line::Question</t>
   </si>
   <si>
-    <t>Clinic::KnowledgeCategory</t>
-  </si>
-  <si>
-    <t>衛教類別1</t>
-  </si>
-  <si>
-    <t>衛教類別2</t>
-  </si>
-  <si>
-    <t>衛教類別3</t>
-  </si>
-  <si>
-    <t>衛教類別4</t>
-  </si>
-  <si>
-    <t>衛教類別5</t>
-  </si>
-  <si>
-    <t>衛教類別6</t>
-  </si>
-  <si>
-    <t>Clinic::Knowledge</t>
-  </si>
-  <si>
     <t>knowledge_category_id</t>
   </si>
   <si>
@@ -347,13 +323,106 @@
   </si>
   <si>
     <t>questionable_id</t>
+  </si>
+  <si>
+    <t>KnowledgeCategory</t>
+  </si>
+  <si>
+    <t>分類1</t>
+  </si>
+  <si>
+    <t>分類2</t>
+  </si>
+  <si>
+    <t>分類3</t>
+  </si>
+  <si>
+    <t>分類4</t>
+  </si>
+  <si>
+    <t>分類5</t>
+  </si>
+  <si>
+    <t>分類6</t>
+  </si>
+  <si>
+    <t>Knowledge</t>
+  </si>
+  <si>
+    <t>問題1</t>
+  </si>
+  <si>
+    <t>問題2</t>
+  </si>
+  <si>
+    <t>問題3</t>
+  </si>
+  <si>
+    <t>問題4</t>
+  </si>
+  <si>
+    <t>問題5</t>
+  </si>
+  <si>
+    <t>問題6</t>
+  </si>
+  <si>
+    <t>問題7</t>
+  </si>
+  <si>
+    <t>問題8</t>
+  </si>
+  <si>
+    <t>問題9</t>
+  </si>
+  <si>
+    <t>問題10</t>
+  </si>
+  <si>
+    <t>問題11</t>
+  </si>
+  <si>
+    <t>問題12</t>
+  </si>
+  <si>
+    <t>問題13</t>
+  </si>
+  <si>
+    <t>問題14</t>
+  </si>
+  <si>
+    <t>問題15</t>
+  </si>
+  <si>
+    <t>問題16</t>
+  </si>
+  <si>
+    <t>問題17</t>
+  </si>
+  <si>
+    <t>問題18</t>
+  </si>
+  <si>
+    <t>問題19</t>
+  </si>
+  <si>
+    <t>問題20</t>
+  </si>
+  <si>
+    <t>問題21</t>
+  </si>
+  <si>
+    <t>問題22</t>
+  </si>
+  <si>
+    <t>answer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -365,6 +434,12 @@
       <u/>
       <sz val="12"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1375,7 +1450,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1531,18 +1606,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED65DF7C-4BEE-6F4F-92E1-7C27695938B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9039F7A-AF2A-6143-B77D-B23163B4C29E}">
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1564,7 +1639,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1575,7 +1650,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1586,7 +1661,7 @@
         <v>1</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
@@ -1597,7 +1672,7 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
@@ -1608,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
@@ -1619,30 +1694,28 @@
         <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB6FD251-7FDE-C846-AD1E-D7724AB44089}">
-  <dimension ref="A1:B22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04F9BDF-2774-B644-B9A0-DB472B59EBFB}">
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="16" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1650,7 +1723,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1698,7 +1771,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -1722,7 +1795,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -1730,7 +1803,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -1738,7 +1811,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -1746,7 +1819,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -1770,7 +1843,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -1778,7 +1851,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -1786,7 +1859,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -1794,7 +1867,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -1802,7 +1875,7 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -1811,6 +1884,22 @@
       </c>
       <c r="B22">
         <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1819,35 +1908,347 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFB43364-24B4-2240-8FE8-F445AE5782B7}">
-  <dimension ref="A1:D2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BC3CA-4D41-7946-8247-8CC3532CF2D2}">
+  <dimension ref="A1:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>102</v>
       </c>
-      <c r="D2" t="s">
-        <v>100</v>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>102</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>102</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>102</v>
+      </c>
+      <c r="C12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>102</v>
+      </c>
+      <c r="C15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>102</v>
+      </c>
+      <c r="C20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>102</v>
+      </c>
+      <c r="C22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51EF1084-D100-E24B-959B-B5D9A9C7A545}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B5000-DDCD-E84B-9D94-8BCBE3F5E41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="7" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="9" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
   <sheets>
     <sheet name="clinics" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,9 @@
     <sheet name="services" sheetId="5" r:id="rId5"/>
     <sheet name="衛教資訊分類" sheetId="9" r:id="rId6"/>
     <sheet name="衛教資訊" sheetId="10" r:id="rId7"/>
-    <sheet name="LINE問題" sheetId="11" r:id="rId8"/>
+    <sheet name="基本問候語 其他" sheetId="13" r:id="rId8"/>
+    <sheet name="系統回覆" sheetId="14" r:id="rId9"/>
+    <sheet name="LINE訊息模板" sheetId="15" r:id="rId10"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
   <si>
     <t>Clinic</t>
   </si>
@@ -310,112 +312,88 @@
     <t>db/seed/load_excel/pic/doctors/rectangular/07.jpg</t>
   </si>
   <si>
-    <t>Line::Question</t>
-  </si>
-  <si>
     <t>knowledge_category_id</t>
   </si>
   <si>
     <t>content</t>
   </si>
   <si>
-    <t>questionable_type</t>
-  </si>
-  <si>
-    <t>questionable_id</t>
-  </si>
-  <si>
-    <t>KnowledgeCategory</t>
-  </si>
-  <si>
-    <t>分類1</t>
-  </si>
-  <si>
-    <t>分類2</t>
-  </si>
-  <si>
-    <t>分類3</t>
-  </si>
-  <si>
-    <t>分類4</t>
-  </si>
-  <si>
-    <t>分類5</t>
-  </si>
-  <si>
-    <t>分類6</t>
-  </si>
-  <si>
-    <t>Knowledge</t>
-  </si>
-  <si>
-    <t>問題1</t>
-  </si>
-  <si>
-    <t>問題2</t>
-  </si>
-  <si>
-    <t>問題3</t>
-  </si>
-  <si>
-    <t>問題4</t>
-  </si>
-  <si>
-    <t>問題5</t>
-  </si>
-  <si>
-    <t>問題6</t>
-  </si>
-  <si>
-    <t>問題7</t>
-  </si>
-  <si>
-    <t>問題8</t>
-  </si>
-  <si>
-    <t>問題9</t>
-  </si>
-  <si>
-    <t>問題10</t>
-  </si>
-  <si>
-    <t>問題11</t>
-  </si>
-  <si>
-    <t>問題12</t>
-  </si>
-  <si>
-    <t>問題13</t>
-  </si>
-  <si>
-    <t>問題14</t>
-  </si>
-  <si>
-    <t>問題15</t>
-  </si>
-  <si>
-    <t>問題16</t>
-  </si>
-  <si>
-    <t>問題17</t>
-  </si>
-  <si>
-    <t>問題18</t>
-  </si>
-  <si>
-    <t>問題19</t>
-  </si>
-  <si>
-    <t>問題20</t>
-  </si>
-  <si>
-    <t>問題21</t>
-  </si>
-  <si>
-    <t>問題22</t>
-  </si>
-  <si>
-    <t>answer</t>
+    <t>ClinicLine::KnowledgeCategory</t>
+  </si>
+  <si>
+    <t>ClinicLine::Keyword</t>
+  </si>
+  <si>
+    <t>ClinicLine::System</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>歡迎</t>
+  </si>
+  <si>
+    <t>謝謝,謝,你好</t>
+  </si>
+  <si>
+    <t>看診</t>
+  </si>
+  <si>
+    <t>[{\"type\":\"text\",\"text\":\"不客氣\"}]</t>
+  </si>
+  <si>
+    <t>[{\"type\":\"text\",\"text\":\"您是否要掛號\"}]</t>
+  </si>
+  <si>
+    <t>[{\"type\":\"text\",\"text\":\"歡迎來到無想牙醫診所 \"}]</t>
+  </si>
+  <si>
+    <t>關於刷牙</t>
+  </si>
+  <si>
+    <t>關於牙醫</t>
+  </si>
+  <si>
+    <t>Line::MessageTemplate</t>
+  </si>
+  <si>
+    <t>templateable_type</t>
+  </si>
+  <si>
+    <t>templateable_id</t>
+  </si>
+  <si>
+    <t>刷牙正確時機,刷牙時間</t>
+  </si>
+  <si>
+    <t>牙刷挑選,挑選刷牙</t>
+  </si>
+  <si>
+    <t>[{\"type\":\"text\",\"text\":\"早上下午晚上\"}]</t>
+  </si>
+  <si>
+    <t>ClinicLine::Knowledge</t>
+  </si>
+  <si>
+    <t>知識1</t>
+  </si>
+  <si>
+    <t>知識2</t>
+  </si>
+  <si>
+    <t>[{\"type\":\"text\",\"text\":\"知識1回文\"}]</t>
+  </si>
+  <si>
+    <t>[{\"type\":\"text\",\"text\":\"知識2回文\"}]</t>
+  </si>
+  <si>
+    <t>未知訊息</t>
+  </si>
+  <si>
+    <t>[{\"type\":\"text\",\"text\":\"您好，你目前的訊息無法識別\"}]</t>
+  </si>
+  <si>
+    <t>keyword_names</t>
   </si>
 </sst>
 </file>
@@ -882,6 +860,182 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BD5FA-9434-7940-8B1A-24220360C1BD}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>108</v>
+      </c>
+      <c r="E4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="E10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{309DE9A2-93E7-6143-AC4B-7FDE0E7BE308}">
   <dimension ref="A1:G11"/>
@@ -1607,17 +1761,17 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9039F7A-AF2A-6143-B77D-B23163B4C29E}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1639,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1650,51 +1804,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1705,7 +1815,119 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04F9BDF-2774-B644-B9A0-DB472B59EBFB}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCFF44F-9E7C-4C42-986C-7E7A9BA25951}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA16D7-1CA0-1E4C-B544-CC0784DE1C6A}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
@@ -1713,542 +1935,45 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>6</v>
+      <c r="C4" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{208BC3CA-4D41-7946-8247-8CC3532CF2D2}">
-  <dimension ref="A1:E24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6">
-        <v>4</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>6</v>
-      </c>
-      <c r="B8" t="s">
-        <v>102</v>
-      </c>
-      <c r="C8">
-        <v>6</v>
-      </c>
-      <c r="D8" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>7</v>
-      </c>
-      <c r="B9" t="s">
-        <v>102</v>
-      </c>
-      <c r="C9">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>8</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>102</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>102</v>
-      </c>
-      <c r="C13">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C15">
-        <v>13</v>
-      </c>
-      <c r="D15" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>14</v>
-      </c>
-      <c r="B16" t="s">
-        <v>102</v>
-      </c>
-      <c r="C16">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C17">
-        <v>15</v>
-      </c>
-      <c r="D17" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>16</v>
-      </c>
-      <c r="B18" t="s">
-        <v>102</v>
-      </c>
-      <c r="C18">
-        <v>16</v>
-      </c>
-      <c r="D18" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>17</v>
-      </c>
-      <c r="B19" t="s">
-        <v>102</v>
-      </c>
-      <c r="C19">
-        <v>17</v>
-      </c>
-      <c r="D19" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>18</v>
-      </c>
-      <c r="B20" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20">
-        <v>18</v>
-      </c>
-      <c r="D20" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>102</v>
-      </c>
-      <c r="C21">
-        <v>19</v>
-      </c>
-      <c r="D21" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>102</v>
-      </c>
-      <c r="C22">
-        <v>20</v>
-      </c>
-      <c r="D22" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>21</v>
-      </c>
-      <c r="B23" t="s">
-        <v>102</v>
-      </c>
-      <c r="C23">
-        <v>21</v>
-      </c>
-      <c r="D23" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>22</v>
-      </c>
-      <c r="B24" t="s">
-        <v>102</v>
-      </c>
-      <c r="C24">
-        <v>22</v>
-      </c>
-      <c r="D24" t="s">
-        <v>124</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{890B5000-DDCD-E84B-9D94-8BCBE3F5E41C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9130861-958D-324D-B153-409D07E3DBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="9" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
@@ -865,7 +865,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1930,7 +1930,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9130861-958D-324D-B153-409D07E3DBCA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C07B40-1E2A-594A-AAE9-CEF810306E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="9" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
@@ -315,9 +315,6 @@
     <t>knowledge_category_id</t>
   </si>
   <si>
-    <t>content</t>
-  </si>
-  <si>
     <t>ClinicLine::KnowledgeCategory</t>
   </si>
   <si>
@@ -339,24 +336,12 @@
     <t>看診</t>
   </si>
   <si>
-    <t>[{\"type\":\"text\",\"text\":\"不客氣\"}]</t>
-  </si>
-  <si>
-    <t>[{\"type\":\"text\",\"text\":\"您是否要掛號\"}]</t>
-  </si>
-  <si>
-    <t>[{\"type\":\"text\",\"text\":\"歡迎來到無想牙醫診所 \"}]</t>
-  </si>
-  <si>
     <t>關於刷牙</t>
   </si>
   <si>
     <t>關於牙醫</t>
   </si>
   <si>
-    <t>Line::MessageTemplate</t>
-  </si>
-  <si>
     <t>templateable_type</t>
   </si>
   <si>
@@ -369,9 +354,6 @@
     <t>牙刷挑選,挑選刷牙</t>
   </si>
   <si>
-    <t>[{\"type\":\"text\",\"text\":\"早上下午晚上\"}]</t>
-  </si>
-  <si>
     <t>ClinicLine::Knowledge</t>
   </si>
   <si>
@@ -381,19 +363,37 @@
     <t>知識2</t>
   </si>
   <si>
-    <t>[{\"type\":\"text\",\"text\":\"知識1回文\"}]</t>
-  </si>
-  <si>
-    <t>[{\"type\":\"text\",\"text\":\"知識2回文\"}]</t>
-  </si>
-  <si>
     <t>未知訊息</t>
   </si>
   <si>
-    <t>[{\"type\":\"text\",\"text\":\"您好，你目前的訊息無法識別\"}]</t>
-  </si>
-  <si>
     <t>keyword_names</t>
+  </si>
+  <si>
+    <t>message_contents</t>
+  </si>
+  <si>
+    <t>早上下午晚上</t>
+  </si>
+  <si>
+    <t>知識1回文</t>
+  </si>
+  <si>
+    <t>知識2回文</t>
+  </si>
+  <si>
+    <t>不客氣</t>
+  </si>
+  <si>
+    <t>你是否要掛號</t>
+  </si>
+  <si>
+    <t>歡迎來到無想牙醫診所</t>
+  </si>
+  <si>
+    <t>很抱歉，你目前的訊息無法識別</t>
+  </si>
+  <si>
+    <t>Line::Template</t>
   </si>
 </sst>
 </file>
@@ -865,7 +865,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,7 +878,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -886,16 +886,16 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E2" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -903,16 +903,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E3" t="s">
         <v>110</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>107</v>
-      </c>
-      <c r="E3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -920,16 +920,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>103</v>
+      </c>
+      <c r="E4" t="s">
         <v>110</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E4" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -937,16 +937,16 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C5">
         <v>3</v>
       </c>
       <c r="D5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E5" t="s">
         <v>111</v>
-      </c>
-      <c r="E5" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -954,16 +954,16 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="E6" t="s">
         <v>112</v>
-      </c>
-      <c r="E6" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -971,16 +971,16 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -988,16 +988,16 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8">
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1005,16 +1005,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1022,7 +1022,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10">
         <v>2</v>
@@ -1771,7 +1771,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1793,7 +1793,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1804,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1829,7 +1829,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1893,7 +1893,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1930,14 +1930,14 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -1948,7 +1948,7 @@
         <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1959,7 +1959,7 @@
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C07B40-1E2A-594A-AAE9-CEF810306E8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38924911-B63D-E442-84FA-9E23BD00AB65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="9" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="8" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
   <sheets>
     <sheet name="clinics" sheetId="1" r:id="rId1"/>
@@ -363,9 +363,6 @@
     <t>知識2</t>
   </si>
   <si>
-    <t>未知訊息</t>
-  </si>
-  <si>
     <t>keyword_names</t>
   </si>
   <si>
@@ -394,6 +391,9 @@
   </si>
   <si>
     <t>Line::Template</t>
+  </si>
+  <si>
+    <t>無法判讀</t>
   </si>
 </sst>
 </file>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BD5FA-9434-7940-8B1A-24220360C1BD}">
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -878,7 +878,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -892,10 +892,10 @@
         <v>101</v>
       </c>
       <c r="D2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E2" t="s">
         <v>108</v>
-      </c>
-      <c r="E2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -912,7 +912,7 @@
         <v>102</v>
       </c>
       <c r="E3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -929,7 +929,7 @@
         <v>103</v>
       </c>
       <c r="E4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -946,7 +946,7 @@
         <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -963,7 +963,7 @@
         <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -980,7 +980,7 @@
         <v>96</v>
       </c>
       <c r="E7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -997,7 +997,7 @@
         <v>97</v>
       </c>
       <c r="E8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -1014,7 +1014,7 @@
         <v>95</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -1028,7 +1028,7 @@
         <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -1929,8 +1929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA16D7-1CA0-1E4C-B544-CC0784DE1C6A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38924911-B63D-E442-84FA-9E23BD00AB65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5B4C57-70AA-0B40-9890-47983669D9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="8" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="9" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
   <sheets>
     <sheet name="clinics" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,8 @@
     <sheet name="衛教資訊" sheetId="10" r:id="rId7"/>
     <sheet name="基本問候語 其他" sheetId="13" r:id="rId8"/>
     <sheet name="系統回覆" sheetId="14" r:id="rId9"/>
-    <sheet name="LINE訊息模板" sheetId="15" r:id="rId10"/>
+    <sheet name="廣播" sheetId="16" r:id="rId10"/>
+    <sheet name="LINE訊息模板" sheetId="15" r:id="rId11"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
   <si>
     <t>Clinic</t>
   </si>
@@ -394,6 +395,21 @@
   </si>
   <si>
     <t>無法判讀</t>
+  </si>
+  <si>
+    <t>ClinicLine::Broadcast</t>
+  </si>
+  <si>
+    <t>您好，這是你的訊息</t>
+  </si>
+  <si>
+    <t>您好，這是牙醫訊息</t>
+  </si>
+  <si>
+    <t>廣播1</t>
+  </si>
+  <si>
+    <t>廣播2</t>
   </si>
 </sst>
 </file>
@@ -861,11 +877,64 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D140CD-166D-FA4F-B793-6294AED074CD}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BD5FA-9434-7940-8B1A-24220360C1BD}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1029,6 +1098,34 @@
       </c>
       <c r="E10" t="s">
         <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -1818,7 +1915,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1882,7 +1979,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1929,8 +2026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA16D7-1CA0-1E4C-B544-CC0784DE1C6A}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5B4C57-70AA-0B40-9890-47983669D9FF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338DF079-8582-5E47-AB7B-464E6D0125CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="9" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="4" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
   <sheets>
-    <sheet name="clinics" sheetId="1" r:id="rId1"/>
-    <sheet name="doctors" sheetId="2" r:id="rId2"/>
-    <sheet name="members" sheetId="3" r:id="rId3"/>
-    <sheet name="patients" sheetId="4" r:id="rId4"/>
-    <sheet name="services" sheetId="5" r:id="rId5"/>
-    <sheet name="衛教資訊分類" sheetId="9" r:id="rId6"/>
-    <sheet name="衛教資訊" sheetId="10" r:id="rId7"/>
-    <sheet name="基本問候語 其他" sheetId="13" r:id="rId8"/>
-    <sheet name="系統回覆" sheetId="14" r:id="rId9"/>
-    <sheet name="廣播" sheetId="16" r:id="rId10"/>
-    <sheet name="LINE訊息模板" sheetId="15" r:id="rId11"/>
+    <sheet name="診所" sheetId="1" r:id="rId1"/>
+    <sheet name="醫生" sheetId="2" r:id="rId2"/>
+    <sheet name="會員" sheetId="3" r:id="rId3"/>
+    <sheet name="病患" sheetId="4" r:id="rId4"/>
+    <sheet name="診所休假" sheetId="17" r:id="rId5"/>
+    <sheet name="項目" sheetId="5" r:id="rId6"/>
+    <sheet name="衛教資訊分類" sheetId="9" r:id="rId7"/>
+    <sheet name="衛教資訊" sheetId="10" r:id="rId8"/>
+    <sheet name="基本問候語 其他" sheetId="13" r:id="rId9"/>
+    <sheet name="系統回覆" sheetId="14" r:id="rId10"/>
+    <sheet name="廣播" sheetId="16" r:id="rId11"/>
+    <sheet name="LINE訊息模板" sheetId="15" r:id="rId12"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
   <si>
     <t>Clinic</t>
   </si>
@@ -410,6 +411,15 @@
   </si>
   <si>
     <t>廣播2</t>
+  </si>
+  <si>
+    <t>Clinic::Vacation</t>
+  </si>
+  <si>
+    <t>start_date</t>
+  </si>
+  <si>
+    <t>end_date</t>
   </si>
 </sst>
 </file>
@@ -877,11 +887,64 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA16D7-1CA0-1E4C-B544-CC0784DE1C6A}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D140CD-166D-FA4F-B793-6294AED074CD}">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -929,7 +992,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BD5FA-9434-7940-8B1A-24220360C1BD}">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1392,7 +1455,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1697,11 +1760,75 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026780F4-3651-5242-996F-CE764D715F0B}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>43800</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43801</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>43814</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43815</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>43819</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43822</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1F6A5A-5FC4-8143-888B-2D84181A3C28}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1856,7 +1983,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9039F7A-AF2A-6143-B77D-B23163B4C29E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1910,7 +2037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04F9BDF-2774-B644-B9A0-DB472B59EBFB}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -1974,7 +2101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCFF44F-9E7C-4C42-986C-7E7A9BA25951}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -2020,57 +2147,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA16D7-1CA0-1E4C-B544-CC0784DE1C6A}">
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{338DF079-8582-5E47-AB7B-464E6D0125CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AEF622-8B87-954A-8F36-834EC40EFD32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="4" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="126">
   <si>
     <t>Clinic</t>
   </si>
@@ -1761,60 +1761,72 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026780F4-3651-5242-996F-CE764D715F0B}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" t="s">
         <v>124</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
         <v>43800</v>
       </c>
-      <c r="C3" s="2">
+      <c r="D3" s="2">
         <v>43801</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
         <v>43814</v>
       </c>
-      <c r="C4" s="2">
+      <c r="D4" s="2">
         <v>43815</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
         <v>43819</v>
       </c>
-      <c r="C5" s="2">
+      <c r="D5" s="2">
         <v>43822</v>
       </c>
     </row>

--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AEF622-8B87-954A-8F36-834EC40EFD32}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780E33B6-5322-274B-A82E-5CD8BEDD9DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="4" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="3" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
   <sheets>
     <sheet name="診所" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="廣播" sheetId="16" r:id="rId11"/>
     <sheet name="LINE訊息模板" sheetId="15" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="315">
   <si>
     <t>Clinic</t>
   </si>
@@ -420,6 +420,573 @@
   </si>
   <si>
     <t>end_date</t>
+  </si>
+  <si>
+    <t>江佳宜</t>
+  </si>
+  <si>
+    <t>王世達</t>
+  </si>
+  <si>
+    <t>汪文帝</t>
+  </si>
+  <si>
+    <t>汪維宇</t>
+  </si>
+  <si>
+    <t>馮昱志</t>
+  </si>
+  <si>
+    <t>林承軒</t>
+  </si>
+  <si>
+    <t>江彥廷</t>
+  </si>
+  <si>
+    <t>丁雅萍</t>
+  </si>
+  <si>
+    <t>孔承翰</t>
+  </si>
+  <si>
+    <t>沈淳昱</t>
+  </si>
+  <si>
+    <t>盧維宇</t>
+  </si>
+  <si>
+    <t>戴瑋婷</t>
+  </si>
+  <si>
+    <t>曹伯諺</t>
+  </si>
+  <si>
+    <t>錢志宏</t>
+  </si>
+  <si>
+    <t>秦淳昱</t>
+  </si>
+  <si>
+    <t>潘子倩</t>
+  </si>
+  <si>
+    <t>羅柏旭</t>
+  </si>
+  <si>
+    <t>羅于禎</t>
+  </si>
+  <si>
+    <t>宋家銘</t>
+  </si>
+  <si>
+    <t>倪若凡</t>
+  </si>
+  <si>
+    <t>康哲瑋</t>
+  </si>
+  <si>
+    <t>蕭君如</t>
+  </si>
+  <si>
+    <t>賀致堯</t>
+  </si>
+  <si>
+    <t>馬昺崙</t>
+  </si>
+  <si>
+    <t>郭淑芬</t>
+  </si>
+  <si>
+    <t>閻筱涵</t>
+  </si>
+  <si>
+    <t>莊培鈞</t>
+  </si>
+  <si>
+    <t>楊立茀</t>
+  </si>
+  <si>
+    <t>何淑慧</t>
+  </si>
+  <si>
+    <t>李雅琪</t>
+  </si>
+  <si>
+    <t>范心怡</t>
+  </si>
+  <si>
+    <t>田家瑋</t>
+  </si>
+  <si>
+    <t>王威任</t>
+  </si>
+  <si>
+    <t>周焙琪</t>
+  </si>
+  <si>
+    <t>萬嘉瑩</t>
+  </si>
+  <si>
+    <t>韓淑茹</t>
+  </si>
+  <si>
+    <t>姜子皓</t>
+  </si>
+  <si>
+    <t>麥怡伶</t>
+  </si>
+  <si>
+    <t>石宛晶</t>
+  </si>
+  <si>
+    <t>李雅萱</t>
+  </si>
+  <si>
+    <t>鄭佩雯</t>
+  </si>
+  <si>
+    <t>韋子萱</t>
+  </si>
+  <si>
+    <t>鄭淑慧</t>
+  </si>
+  <si>
+    <t>閻又綺</t>
+  </si>
+  <si>
+    <t>方博庶</t>
+  </si>
+  <si>
+    <t>龍羽軒</t>
+  </si>
+  <si>
+    <t>楊佩蓉</t>
+  </si>
+  <si>
+    <t>賴詩婕</t>
+  </si>
+  <si>
+    <t>趙嬿婷</t>
+  </si>
+  <si>
+    <t>姜丹羿</t>
+  </si>
+  <si>
+    <t>顧俞斐</t>
+  </si>
+  <si>
+    <t>符姿吟</t>
+  </si>
+  <si>
+    <t>魏昇典</t>
+  </si>
+  <si>
+    <t>鄒柏旭</t>
+  </si>
+  <si>
+    <t>袁峰</t>
+  </si>
+  <si>
+    <t>陸宛妤</t>
+  </si>
+  <si>
+    <t>葉溫馨</t>
+  </si>
+  <si>
+    <t>白子倩</t>
+  </si>
+  <si>
+    <t>陳祥深</t>
+  </si>
+  <si>
+    <t>蕭家正</t>
+  </si>
+  <si>
+    <t>莊雅</t>
+  </si>
+  <si>
+    <t>施鴻嘉</t>
+  </si>
+  <si>
+    <t>路騰堅</t>
+  </si>
+  <si>
+    <t>呂家儀</t>
+  </si>
+  <si>
+    <t>袁邕</t>
+  </si>
+  <si>
+    <t>薛育秋</t>
+  </si>
+  <si>
+    <t>嚴焙琪</t>
+  </si>
+  <si>
+    <t>李虹均</t>
+  </si>
+  <si>
+    <t>孔瓊之</t>
+  </si>
+  <si>
+    <t>萬孝慈</t>
+  </si>
+  <si>
+    <t>徐依珊</t>
+  </si>
+  <si>
+    <t>董建國</t>
+  </si>
+  <si>
+    <t>陸禹凡</t>
+  </si>
+  <si>
+    <t>龔敏智</t>
+  </si>
+  <si>
+    <t>潘柏叡</t>
+  </si>
+  <si>
+    <t>郭富奎</t>
+  </si>
+  <si>
+    <t>任詩淳</t>
+  </si>
+  <si>
+    <t>彭隆衣</t>
+  </si>
+  <si>
+    <t>葛媺然</t>
+  </si>
+  <si>
+    <t>葉子皓</t>
+  </si>
+  <si>
+    <t>邢辰玥</t>
+  </si>
+  <si>
+    <t>史靜宜</t>
+  </si>
+  <si>
+    <t>蕭惠婷</t>
+  </si>
+  <si>
+    <t>毛孟熹</t>
+  </si>
+  <si>
+    <t>丁維亭</t>
+  </si>
+  <si>
+    <t>韋弦錡</t>
+  </si>
+  <si>
+    <t>孟威廷</t>
+  </si>
+  <si>
+    <t>林佳樺</t>
+  </si>
+  <si>
+    <t>董心怡</t>
+  </si>
+  <si>
+    <t>于芊曄</t>
+  </si>
+  <si>
+    <t>曾怡君</t>
+  </si>
+  <si>
+    <t>賀欣怡</t>
+  </si>
+  <si>
+    <t>符政宏</t>
+  </si>
+  <si>
+    <t>田筱涵</t>
+  </si>
+  <si>
+    <t>侯世一</t>
+  </si>
+  <si>
+    <t>0975016376</t>
+  </si>
+  <si>
+    <t>0965008352</t>
+  </si>
+  <si>
+    <t>0975016753</t>
+  </si>
+  <si>
+    <t>0912918053</t>
+  </si>
+  <si>
+    <t>0965008370</t>
+  </si>
+  <si>
+    <t>0933032635</t>
+  </si>
+  <si>
+    <t>0975017395</t>
+  </si>
+  <si>
+    <t>0912930837</t>
+  </si>
+  <si>
+    <t>0965008697</t>
+  </si>
+  <si>
+    <t>0905639850</t>
+  </si>
+  <si>
+    <t>0975017653</t>
+  </si>
+  <si>
+    <t>0905637092</t>
+  </si>
+  <si>
+    <t>0965010577</t>
+  </si>
+  <si>
+    <t>0975017583</t>
+  </si>
+  <si>
+    <t>0905632171</t>
+  </si>
+  <si>
+    <t>0905629037</t>
+  </si>
+  <si>
+    <t>0933031621</t>
+  </si>
+  <si>
+    <t>0905653186</t>
+  </si>
+  <si>
+    <t>0933032087</t>
+  </si>
+  <si>
+    <t>0912952873</t>
+  </si>
+  <si>
+    <t>0905627763</t>
+  </si>
+  <si>
+    <t>0933026896</t>
+  </si>
+  <si>
+    <t>0905657039</t>
+  </si>
+  <si>
+    <t>0905657923</t>
+  </si>
+  <si>
+    <t>0905608071</t>
+  </si>
+  <si>
+    <t>0905633205</t>
+  </si>
+  <si>
+    <t>0905637116</t>
+  </si>
+  <si>
+    <t>0912953702</t>
+  </si>
+  <si>
+    <t>0905653071</t>
+  </si>
+  <si>
+    <t>0912956280</t>
+  </si>
+  <si>
+    <t>0905655876</t>
+  </si>
+  <si>
+    <t>0912957916</t>
+  </si>
+  <si>
+    <t>0905657597</t>
+  </si>
+  <si>
+    <t>0905659295</t>
+  </si>
+  <si>
+    <t>0912932791</t>
+  </si>
+  <si>
+    <t>0905627792</t>
+  </si>
+  <si>
+    <t>0933259961</t>
+  </si>
+  <si>
+    <t>0975057733</t>
+  </si>
+  <si>
+    <t>0965002092</t>
+  </si>
+  <si>
+    <t>0965600038</t>
+  </si>
+  <si>
+    <t>0965019936</t>
+  </si>
+  <si>
+    <t>0975057991</t>
+  </si>
+  <si>
+    <t>0965600037</t>
+  </si>
+  <si>
+    <t>0912926361</t>
+  </si>
+  <si>
+    <t>0965600036</t>
+  </si>
+  <si>
+    <t>0965600035</t>
+  </si>
+  <si>
+    <t>0965600032</t>
+  </si>
+  <si>
+    <t>0965600026</t>
+  </si>
+  <si>
+    <t>0912930657</t>
+  </si>
+  <si>
+    <t>0919136273</t>
+  </si>
+  <si>
+    <t>0928670693</t>
+  </si>
+  <si>
+    <t>0912959312</t>
+  </si>
+  <si>
+    <t>0928671703</t>
+  </si>
+  <si>
+    <t>0975016573</t>
+  </si>
+  <si>
+    <t>0919170875</t>
+  </si>
+  <si>
+    <t>0928657205</t>
+  </si>
+  <si>
+    <t>0912935971</t>
+  </si>
+  <si>
+    <t>0928671263</t>
+  </si>
+  <si>
+    <t>0975017671</t>
+  </si>
+  <si>
+    <t>0928673751</t>
+  </si>
+  <si>
+    <t>0965003572</t>
+  </si>
+  <si>
+    <t>0919167175</t>
+  </si>
+  <si>
+    <t>0928675063</t>
+  </si>
+  <si>
+    <t>0975017532</t>
+  </si>
+  <si>
+    <t>0912950871</t>
+  </si>
+  <si>
+    <t>0978115271</t>
+  </si>
+  <si>
+    <t>0912957590</t>
+  </si>
+  <si>
+    <t>0919167936</t>
+  </si>
+  <si>
+    <t>0919171925</t>
+  </si>
+  <si>
+    <t>0928657152</t>
+  </si>
+  <si>
+    <t>0965005182</t>
+  </si>
+  <si>
+    <t>0978053393</t>
+  </si>
+  <si>
+    <t>0912956017</t>
+  </si>
+  <si>
+    <t>0928587795</t>
+  </si>
+  <si>
+    <t>0965300881</t>
+  </si>
+  <si>
+    <t>0912953370</t>
+  </si>
+  <si>
+    <t>0928603671</t>
+  </si>
+  <si>
+    <t>0965210883</t>
+  </si>
+  <si>
+    <t>0965600112</t>
+  </si>
+  <si>
+    <t>0912953820</t>
+  </si>
+  <si>
+    <t>0919173276</t>
+  </si>
+  <si>
+    <t>0919173571</t>
+  </si>
+  <si>
+    <t>0919173207</t>
+  </si>
+  <si>
+    <t>0928587601</t>
+  </si>
+  <si>
+    <t>0965210881</t>
+  </si>
+  <si>
+    <t>0965005930</t>
+  </si>
+  <si>
+    <t>0919172510</t>
+  </si>
+  <si>
+    <t>0928592237</t>
+  </si>
+  <si>
+    <t>0965301112</t>
+  </si>
+  <si>
+    <t>0965007235</t>
+  </si>
+  <si>
+    <t>0965600012</t>
+  </si>
+  <si>
+    <t>0965600015</t>
+  </si>
+  <si>
+    <t>0965600021</t>
+  </si>
+  <si>
+    <t>0919172835</t>
   </si>
 </sst>
 </file>
@@ -1554,10 +2121,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A253F5-DB2F-E24B-A588-B7C48E8DEB41}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1752,6 +2319,1621 @@
       </c>
       <c r="E12" s="2">
         <v>37422</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E13" s="2">
+        <v>16499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E14" s="2">
+        <v>39729</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="E15" s="2">
+        <v>40141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>129</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="E16" s="2">
+        <v>37680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>130</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="E17" s="2">
+        <v>19127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E18" s="2">
+        <v>21025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E19" s="2">
+        <v>19236</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>133</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E20" s="2">
+        <v>17983</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>134</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E21" s="2">
+        <v>17931</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E22" s="2">
+        <v>9889</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E23" s="2">
+        <v>31143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E24" s="2">
+        <v>10054</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E25" s="2">
+        <v>42811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" t="s">
+        <v>139</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="E26" s="2">
+        <v>7586</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E27" s="2">
+        <v>21927</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E28" s="2">
+        <v>42454</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>142</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E29" s="2">
+        <v>33104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>143</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="E30" s="2">
+        <v>17187</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>144</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="E31" s="2">
+        <v>43018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="E32" s="2">
+        <v>385004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E33" s="2">
+        <v>38245</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>147</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="E34" s="2">
+        <v>34432</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>148</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="E35" s="2">
+        <v>13250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>149</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="E36" s="2">
+        <v>8257</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>150</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="2">
+        <v>30258</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>151</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="E38" s="2">
+        <v>7191</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" s="2">
+        <v>10838</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>153</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="E40" s="2">
+        <v>36155</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>154</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E41" s="2">
+        <v>6991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>155</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="E42" s="2">
+        <v>25788</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>156</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="E43" s="2">
+        <v>36000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>157</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E44" s="2">
+        <v>39229</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>158</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E45" s="2">
+        <v>18539</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>44</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>159</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="E46" s="2">
+        <v>15249</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>255</v>
+      </c>
+      <c r="E47" s="2">
+        <v>34309</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="E48" s="2">
+        <v>13644</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>162</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E49" s="2">
+        <v>17589</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>48</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>163</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E50" s="2">
+        <v>40494</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>164</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="E51" s="2">
+        <v>24154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>165</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E52" s="2">
+        <v>36943</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>166</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E53" s="2">
+        <v>30200</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" t="s">
+        <v>167</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="E54" s="2">
+        <v>17404</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>168</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E55" s="2">
+        <v>17950</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>169</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E56" s="2">
+        <v>29119</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>170</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="E57" s="2">
+        <v>27123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>171</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E58" s="2">
+        <v>14233</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>172</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="E59" s="2">
+        <v>20569</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>173</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="E60" s="2">
+        <v>29330</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="E61" s="2">
+        <v>15004</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>175</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E62" s="2">
+        <v>27690</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>176</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="E63" s="2">
+        <v>33011</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="E64" s="2">
+        <v>10681</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>178</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="E65" s="2">
+        <v>33800</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>179</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E66" s="2">
+        <v>30861</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>180</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="E67" s="2">
+        <v>16376</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>181</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="E68" s="2">
+        <v>9340</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>182</v>
+      </c>
+      <c r="D69" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="E69" s="2">
+        <v>18261</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>183</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E70" s="2">
+        <v>19792</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>184</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" s="2">
+        <v>42093</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>185</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="E72" s="2">
+        <v>14198</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>186</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E73" s="2">
+        <v>29144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>187</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E74" s="2">
+        <v>22936</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75" t="s">
+        <v>188</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="E75" s="2">
+        <v>7265</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>189</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="E76" s="2">
+        <v>23438</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77">
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>190</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="E77" s="2">
+        <v>22366</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78">
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>191</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E78" s="2">
+        <v>41994</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79">
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <v>2</v>
+      </c>
+      <c r="C79" t="s">
+        <v>192</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="E79" s="2">
+        <v>33964</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80">
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" t="s">
+        <v>193</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="E80" s="2">
+        <v>23346</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81">
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" t="s">
+        <v>194</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="E81" s="2">
+        <v>42933</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>195</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E82" s="2">
+        <v>43282</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>196</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="E83" s="2">
+        <v>24373</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" t="s">
+        <v>197</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E84" s="2">
+        <v>32034</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>198</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E85" s="2">
+        <v>36200</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86">
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>199</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E86" s="2">
+        <v>29746</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>200</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="E87" s="2">
+        <v>20529</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>201</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E88" s="2">
+        <v>20092</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89" t="s">
+        <v>202</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E89" s="2">
+        <v>27802</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>203</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="E90" s="2">
+        <v>24308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>204</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E91" s="2">
+        <v>10905</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92" t="s">
+        <v>205</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E92" s="2">
+        <v>7379</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93" t="s">
+        <v>206</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E93" s="2">
+        <v>27821</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94" t="s">
+        <v>207</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E94" s="2">
+        <v>13221</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <v>1</v>
+      </c>
+      <c r="C95" t="s">
+        <v>208</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="E95" s="2">
+        <v>22610</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96" t="s">
+        <v>209</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="E96" s="2">
+        <v>37666</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97" t="s">
+        <v>210</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="E97" s="2">
+        <v>29522</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98" t="s">
+        <v>211</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E98" s="2">
+        <v>35730</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" t="s">
+        <v>212</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E99" s="2">
+        <v>11090</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" t="s">
+        <v>213</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="E100" s="2">
+        <v>15558</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101">
+        <v>99</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" t="s">
+        <v>214</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="E101" s="2">
+        <v>41255</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102">
+        <v>100</v>
+      </c>
+      <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102" t="s">
+        <v>215</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E102" s="2">
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103">
+        <v>101</v>
+      </c>
+      <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103" t="s">
+        <v>216</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E103" s="2">
+        <v>40771</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104">
+        <v>102</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" t="s">
+        <v>217</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E104" s="2">
+        <v>17432</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105">
+        <v>103</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>218</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E105" s="2">
+        <v>35774</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106">
+        <v>104</v>
+      </c>
+      <c r="B106">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>219</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="E106" s="2">
+        <v>32241</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107">
+        <v>105</v>
+      </c>
+      <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107" t="s">
+        <v>220</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="E107" s="2">
+        <v>32886</v>
       </c>
     </row>
   </sheetData>
@@ -1763,8 +3945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{026780F4-3651-5242-996F-CE764D715F0B}">
   <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780E33B6-5322-274B-A82E-5CD8BEDD9DE8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D71B1D2-0DD8-DB4F-89EE-41C3C1E77286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="3" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="11" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
   <sheets>
     <sheet name="診所" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="315">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="319">
   <si>
     <t>Clinic</t>
   </si>
@@ -987,6 +987,18 @@
   </si>
   <si>
     <t>0919172835</t>
+  </si>
+  <si>
+    <t>診所休假變動通知</t>
+  </si>
+  <si>
+    <t>醫生休假變動通知</t>
+  </si>
+  <si>
+    <t>您好，由於診所時間臨時做變動，將取消您的預約，請您再預約新的時段，造成您的不便敬請見諒，謝謝～\n{clinic_name} e關心您</t>
+  </si>
+  <si>
+    <t>您好，由於醫生時間臨時做變動，將取消您的預約，請您再預約新的時段，造成您的不便敬請見諒，謝謝～\n{clinic_name} e關心您</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA16D7-1CA0-1E4C-B544-CC0784DE1C6A}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1499,6 +1511,28 @@
       </c>
       <c r="C4" t="s">
         <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -1561,10 +1595,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BD5FA-9434-7940-8B1A-24220360C1BD}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1735,13 +1769,13 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>119</v>
+        <v>317</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1749,12 +1783,40 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
         <v>118</v>
       </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="E14" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2123,7 +2185,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13A253F5-DB2F-E24B-A588-B7C48E8DEB41}">
   <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -4300,7 +4362,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C6"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/db/seed/load_excel/seed.xlsx
+++ b/db/seed/load_excel/seed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiugypin/projects/dentist/dentist/db/seed/load_excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D71B1D2-0DD8-DB4F-89EE-41C3C1E77286}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ED52BE0-C32B-5E49-9D50-D0EC1884CE58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="11" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
+    <workbookView xWindow="700" yWindow="460" windowWidth="24820" windowHeight="15000" activeTab="5" xr2:uid="{2F5E4A10-C7EE-F641-98BD-6AB8FCDA4909}"/>
   </bookViews>
   <sheets>
     <sheet name="診所" sheetId="1" r:id="rId1"/>
@@ -18,13 +18,14 @@
     <sheet name="會員" sheetId="3" r:id="rId3"/>
     <sheet name="病患" sheetId="4" r:id="rId4"/>
     <sheet name="診所休假" sheetId="17" r:id="rId5"/>
-    <sheet name="項目" sheetId="5" r:id="rId6"/>
-    <sheet name="衛教資訊分類" sheetId="9" r:id="rId7"/>
-    <sheet name="衛教資訊" sheetId="10" r:id="rId8"/>
-    <sheet name="基本問候語 其他" sheetId="13" r:id="rId9"/>
-    <sheet name="系統回覆" sheetId="14" r:id="rId10"/>
-    <sheet name="廣播" sheetId="16" r:id="rId11"/>
-    <sheet name="LINE訊息模板" sheetId="15" r:id="rId12"/>
+    <sheet name="醫生休假" sheetId="18" r:id="rId6"/>
+    <sheet name="項目" sheetId="5" r:id="rId7"/>
+    <sheet name="衛教資訊分類" sheetId="9" r:id="rId8"/>
+    <sheet name="衛教資訊" sheetId="10" r:id="rId9"/>
+    <sheet name="基本問候語 其他" sheetId="13" r:id="rId10"/>
+    <sheet name="系統回覆" sheetId="14" r:id="rId11"/>
+    <sheet name="廣播" sheetId="16" r:id="rId12"/>
+    <sheet name="LINE訊息模板" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="321">
   <si>
     <t>Clinic</t>
   </si>
@@ -999,6 +1000,12 @@
   </si>
   <si>
     <t>您好，由於醫生時間臨時做變動，將取消您的預約，請您再預約新的時段，造成您的不便敬請見諒，謝謝～\n{clinic_name} e關心您</t>
+  </si>
+  <si>
+    <t>Doctor::Vacation</t>
+  </si>
+  <si>
+    <t>doctor_id</t>
   </si>
 </sst>
 </file>
@@ -1466,6 +1473,54 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCFF44F-9E7C-4C42-986C-7E7A9BA25951}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19.1640625" customWidth="1"/>
+    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCEA16D7-1CA0-1E4C-B544-CC0784DE1C6A}">
   <dimension ref="A1:C6"/>
   <sheetViews>
@@ -1540,7 +1595,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0D140CD-166D-FA4F-B793-6294AED074CD}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -1593,12 +1648,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28BD5FA-9434-7940-8B1A-24220360C1BD}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4008,7 +4063,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A2" sqref="A2:D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4080,6 +4135,184 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBE6B4E6-A378-F34C-94B7-A4F8630E06C4}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>43789</v>
+      </c>
+      <c r="D3" s="2">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>43799</v>
+      </c>
+      <c r="D4" s="2">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43800</v>
+      </c>
+      <c r="D5" s="2">
+        <v>43801</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43789</v>
+      </c>
+      <c r="D6" s="2">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2">
+        <v>43809</v>
+      </c>
+      <c r="D7" s="2">
+        <v>43810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2">
+        <v>43822</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43824</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="2">
+        <v>43784</v>
+      </c>
+      <c r="D9" s="2">
+        <v>43784</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="2">
+        <v>43789</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43791</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43799</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43799</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+      <c r="C12" s="2">
+        <v>43794</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1F6A5A-5FC4-8143-888B-2D84181A3C28}">
   <dimension ref="A1:D11"/>
   <sheetViews>
@@ -4239,7 +4472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9039F7A-AF2A-6143-B77D-B23163B4C29E}">
   <dimension ref="A1:C4"/>
   <sheetViews>
@@ -4293,7 +4526,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04F9BDF-2774-B644-B9A0-DB472B59EBFB}">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -4355,52 +4588,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CDCFF44F-9E7C-4C42-986C-7E7A9BA25951}">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="34.5" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>